--- a/DB/Data Dictionary.xlsx
+++ b/DB/Data Dictionary.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="59">
   <si>
     <t xml:space="preserve">FIELD</t>
   </si>
@@ -608,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:AML1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,7 +683,7 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" s="9" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="AMK3" s="7"/>
       <c r="AML3" s="7"/>
     </row>
-    <row r="4" s="9" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>1</v>
@@ -2761,7 +2761,7 @@
       <c r="AMK4" s="12"/>
       <c r="AML4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="AMK6" s="2"/>
       <c r="AML6" s="2"/>
     </row>
-    <row r="7" s="9" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="AMK7" s="7"/>
       <c r="AML7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>1</v>
@@ -6907,7 +6907,7 @@
       <c r="AMK8" s="12"/>
       <c r="AML8" s="12"/>
     </row>
-    <row r="9" s="9" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="AMK9" s="12"/>
       <c r="AML9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -8990,13 +8990,13 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" s="12" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -10069,7 +10069,7 @@
       <c r="AMK14" s="12"/>
       <c r="AML14" s="12"/>
     </row>
-    <row r="15" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
@@ -11111,7 +11111,7 @@
       <c r="AMK15" s="12"/>
       <c r="AML15" s="12"/>
     </row>
-    <row r="16" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -12151,7 +12151,7 @@
       <c r="AMK16" s="12"/>
       <c r="AML16" s="12"/>
     </row>
-    <row r="18" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -13181,7 +13181,7 @@
       <c r="AMK18" s="7"/>
       <c r="AML18" s="7"/>
     </row>
-    <row r="19" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
       <c r="AMK19" s="12"/>
       <c r="AML19" s="12"/>
     </row>
-    <row r="20" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
@@ -15269,7 +15269,7 @@
       <c r="AMK20" s="12"/>
       <c r="AML20" s="12"/>
     </row>
-    <row r="22" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -16299,7 +16299,7 @@
       <c r="AMK22" s="7"/>
       <c r="AML22" s="7"/>
     </row>
-    <row r="23" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
@@ -17341,7 +17341,7 @@
       <c r="AMK23" s="12"/>
       <c r="AML23" s="12"/>
     </row>
-    <row r="24" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
@@ -18383,7 +18383,7 @@
       <c r="AMK24" s="12"/>
       <c r="AML24" s="12"/>
     </row>
-    <row r="26" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -19413,7 +19413,7 @@
       <c r="AMK26" s="7"/>
       <c r="AML26" s="7"/>
     </row>
-    <row r="27" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
         <v>37</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G27" s="12" t="n">
         <v>1</v>
@@ -20461,7 +20461,7 @@
       <c r="AMK27" s="12"/>
       <c r="AML27" s="12"/>
     </row>
-    <row r="28" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
@@ -21501,7 +21501,7 @@
       <c r="AMK28" s="12"/>
       <c r="AML28" s="12"/>
     </row>
-    <row r="29" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
@@ -22541,7 +22541,7 @@
       <c r="AMK29" s="12"/>
       <c r="AML29" s="12"/>
     </row>
-    <row r="30" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
@@ -23581,7 +23581,7 @@
       <c r="AMK30" s="12"/>
       <c r="AML30" s="12"/>
     </row>
-    <row r="31" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
         <v>41</v>
       </c>
@@ -24621,7 +24621,7 @@
       <c r="AMK31" s="12"/>
       <c r="AML31" s="12"/>
     </row>
-    <row r="32" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
         <v>43</v>
       </c>
@@ -25661,7 +25661,7 @@
       <c r="AMK32" s="12"/>
       <c r="AML32" s="12"/>
     </row>
-    <row r="34" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>45</v>
       </c>
@@ -26691,7 +26691,7 @@
       <c r="AMK34" s="7"/>
       <c r="AML34" s="7"/>
     </row>
-    <row r="35" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
         <v>46</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>18</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>1</v>
@@ -27739,7 +27739,7 @@
       <c r="AMK35" s="12"/>
       <c r="AML35" s="12"/>
     </row>
-    <row r="36" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
@@ -28779,7 +28779,7 @@
       <c r="AMK36" s="12"/>
       <c r="AML36" s="12"/>
     </row>
-    <row r="37" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
@@ -29819,7 +29819,7 @@
       <c r="AMK37" s="12"/>
       <c r="AML37" s="12"/>
     </row>
-    <row r="39" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
@@ -30849,7 +30849,7 @@
       <c r="AMK39" s="7"/>
       <c r="AML39" s="7"/>
     </row>
-    <row r="40" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
         <v>37</v>
       </c>
@@ -31891,7 +31891,7 @@
       <c r="AMK40" s="12"/>
       <c r="AML40" s="12"/>
     </row>
-    <row r="41" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
         <v>46</v>
       </c>
@@ -32933,7 +32933,7 @@
       <c r="AMK41" s="12"/>
       <c r="AML41" s="12"/>
     </row>
-    <row r="43" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>50</v>
       </c>
@@ -33963,7 +33963,7 @@
       <c r="AMK43" s="7"/>
       <c r="AML43" s="7"/>
     </row>
-    <row r="44" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
         <v>51</v>
       </c>
@@ -33976,7 +33976,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>1</v>
@@ -35011,7 +35011,7 @@
       <c r="AMK44" s="12"/>
       <c r="AML44" s="12"/>
     </row>
-    <row r="45" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
         <v>37</v>
       </c>
@@ -36053,7 +36053,7 @@
       <c r="AMK45" s="12"/>
       <c r="AML45" s="12"/>
     </row>
-    <row r="46" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
         <v>52</v>
       </c>
@@ -37093,7 +37093,7 @@
       <c r="AMK46" s="12"/>
       <c r="AML46" s="12"/>
     </row>
-    <row r="48" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -38123,7 +38123,7 @@
       <c r="AMK48" s="7"/>
       <c r="AML48" s="7"/>
     </row>
-    <row r="49" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
         <v>54</v>
       </c>
@@ -38136,7 +38136,7 @@
         <v>18</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>1</v>
@@ -39171,7 +39171,7 @@
       <c r="AMK49" s="12"/>
       <c r="AML49" s="12"/>
     </row>
-    <row r="50" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
         <v>27</v>
       </c>
@@ -40213,7 +40213,7 @@
       <c r="AMK50" s="12"/>
       <c r="AML50" s="12"/>
     </row>
-    <row r="51" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
         <v>55</v>
       </c>
@@ -41253,7 +41253,7 @@
       <c r="AMK51" s="12"/>
       <c r="AML51" s="12"/>
     </row>
-    <row r="52" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
         <v>43</v>
       </c>
@@ -42294,7 +42294,7 @@
       <c r="AML52" s="12"/>
     </row>
     <row r="53" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>56</v>
       </c>
@@ -44366,7 +44366,7 @@
       <c r="AMK55" s="12"/>
       <c r="AML55" s="12"/>
     </row>
-    <row r="56" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
         <v>54</v>
       </c>
@@ -45408,7 +45408,1047 @@
       <c r="AMK56" s="12"/>
       <c r="AML56" s="12"/>
     </row>
-    <row r="57" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="12"/>
+      <c r="AW57" s="12"/>
+      <c r="AX57" s="12"/>
+      <c r="AY57" s="12"/>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="12"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+      <c r="BO57" s="12"/>
+      <c r="BP57" s="12"/>
+      <c r="BQ57" s="12"/>
+      <c r="BR57" s="12"/>
+      <c r="BS57" s="12"/>
+      <c r="BT57" s="12"/>
+      <c r="BU57" s="12"/>
+      <c r="BV57" s="12"/>
+      <c r="BW57" s="12"/>
+      <c r="BX57" s="12"/>
+      <c r="BY57" s="12"/>
+      <c r="BZ57" s="12"/>
+      <c r="CA57" s="12"/>
+      <c r="CB57" s="12"/>
+      <c r="CC57" s="12"/>
+      <c r="CD57" s="12"/>
+      <c r="CE57" s="12"/>
+      <c r="CF57" s="12"/>
+      <c r="CG57" s="12"/>
+      <c r="CH57" s="12"/>
+      <c r="CI57" s="12"/>
+      <c r="CJ57" s="12"/>
+      <c r="CK57" s="12"/>
+      <c r="CL57" s="12"/>
+      <c r="CM57" s="12"/>
+      <c r="CN57" s="12"/>
+      <c r="CO57" s="12"/>
+      <c r="CP57" s="12"/>
+      <c r="CQ57" s="12"/>
+      <c r="CR57" s="12"/>
+      <c r="CS57" s="12"/>
+      <c r="CT57" s="12"/>
+      <c r="CU57" s="12"/>
+      <c r="CV57" s="12"/>
+      <c r="CW57" s="12"/>
+      <c r="CX57" s="12"/>
+      <c r="CY57" s="12"/>
+      <c r="CZ57" s="12"/>
+      <c r="DA57" s="12"/>
+      <c r="DB57" s="12"/>
+      <c r="DC57" s="12"/>
+      <c r="DD57" s="12"/>
+      <c r="DE57" s="12"/>
+      <c r="DF57" s="12"/>
+      <c r="DG57" s="12"/>
+      <c r="DH57" s="12"/>
+      <c r="DI57" s="12"/>
+      <c r="DJ57" s="12"/>
+      <c r="DK57" s="12"/>
+      <c r="DL57" s="12"/>
+      <c r="DM57" s="12"/>
+      <c r="DN57" s="12"/>
+      <c r="DO57" s="12"/>
+      <c r="DP57" s="12"/>
+      <c r="DQ57" s="12"/>
+      <c r="DR57" s="12"/>
+      <c r="DS57" s="12"/>
+      <c r="DT57" s="12"/>
+      <c r="DU57" s="12"/>
+      <c r="DV57" s="12"/>
+      <c r="DW57" s="12"/>
+      <c r="DX57" s="12"/>
+      <c r="DY57" s="12"/>
+      <c r="DZ57" s="12"/>
+      <c r="EA57" s="12"/>
+      <c r="EB57" s="12"/>
+      <c r="EC57" s="12"/>
+      <c r="ED57" s="12"/>
+      <c r="EE57" s="12"/>
+      <c r="EF57" s="12"/>
+      <c r="EG57" s="12"/>
+      <c r="EH57" s="12"/>
+      <c r="EI57" s="12"/>
+      <c r="EJ57" s="12"/>
+      <c r="EK57" s="12"/>
+      <c r="EL57" s="12"/>
+      <c r="EM57" s="12"/>
+      <c r="EN57" s="12"/>
+      <c r="EO57" s="12"/>
+      <c r="EP57" s="12"/>
+      <c r="EQ57" s="12"/>
+      <c r="ER57" s="12"/>
+      <c r="ES57" s="12"/>
+      <c r="ET57" s="12"/>
+      <c r="EU57" s="12"/>
+      <c r="EV57" s="12"/>
+      <c r="EW57" s="12"/>
+      <c r="EX57" s="12"/>
+      <c r="EY57" s="12"/>
+      <c r="EZ57" s="12"/>
+      <c r="FA57" s="12"/>
+      <c r="FB57" s="12"/>
+      <c r="FC57" s="12"/>
+      <c r="FD57" s="12"/>
+      <c r="FE57" s="12"/>
+      <c r="FF57" s="12"/>
+      <c r="FG57" s="12"/>
+      <c r="FH57" s="12"/>
+      <c r="FI57" s="12"/>
+      <c r="FJ57" s="12"/>
+      <c r="FK57" s="12"/>
+      <c r="FL57" s="12"/>
+      <c r="FM57" s="12"/>
+      <c r="FN57" s="12"/>
+      <c r="FO57" s="12"/>
+      <c r="FP57" s="12"/>
+      <c r="FQ57" s="12"/>
+      <c r="FR57" s="12"/>
+      <c r="FS57" s="12"/>
+      <c r="FT57" s="12"/>
+      <c r="FU57" s="12"/>
+      <c r="FV57" s="12"/>
+      <c r="FW57" s="12"/>
+      <c r="FX57" s="12"/>
+      <c r="FY57" s="12"/>
+      <c r="FZ57" s="12"/>
+      <c r="GA57" s="12"/>
+      <c r="GB57" s="12"/>
+      <c r="GC57" s="12"/>
+      <c r="GD57" s="12"/>
+      <c r="GE57" s="12"/>
+      <c r="GF57" s="12"/>
+      <c r="GG57" s="12"/>
+      <c r="GH57" s="12"/>
+      <c r="GI57" s="12"/>
+      <c r="GJ57" s="12"/>
+      <c r="GK57" s="12"/>
+      <c r="GL57" s="12"/>
+      <c r="GM57" s="12"/>
+      <c r="GN57" s="12"/>
+      <c r="GO57" s="12"/>
+      <c r="GP57" s="12"/>
+      <c r="GQ57" s="12"/>
+      <c r="GR57" s="12"/>
+      <c r="GS57" s="12"/>
+      <c r="GT57" s="12"/>
+      <c r="GU57" s="12"/>
+      <c r="GV57" s="12"/>
+      <c r="GW57" s="12"/>
+      <c r="GX57" s="12"/>
+      <c r="GY57" s="12"/>
+      <c r="GZ57" s="12"/>
+      <c r="HA57" s="12"/>
+      <c r="HB57" s="12"/>
+      <c r="HC57" s="12"/>
+      <c r="HD57" s="12"/>
+      <c r="HE57" s="12"/>
+      <c r="HF57" s="12"/>
+      <c r="HG57" s="12"/>
+      <c r="HH57" s="12"/>
+      <c r="HI57" s="12"/>
+      <c r="HJ57" s="12"/>
+      <c r="HK57" s="12"/>
+      <c r="HL57" s="12"/>
+      <c r="HM57" s="12"/>
+      <c r="HN57" s="12"/>
+      <c r="HO57" s="12"/>
+      <c r="HP57" s="12"/>
+      <c r="HQ57" s="12"/>
+      <c r="HR57" s="12"/>
+      <c r="HS57" s="12"/>
+      <c r="HT57" s="12"/>
+      <c r="HU57" s="12"/>
+      <c r="HV57" s="12"/>
+      <c r="HW57" s="12"/>
+      <c r="HX57" s="12"/>
+      <c r="HY57" s="12"/>
+      <c r="HZ57" s="12"/>
+      <c r="IA57" s="12"/>
+      <c r="IB57" s="12"/>
+      <c r="IC57" s="12"/>
+      <c r="ID57" s="12"/>
+      <c r="IE57" s="12"/>
+      <c r="IF57" s="12"/>
+      <c r="IG57" s="12"/>
+      <c r="IH57" s="12"/>
+      <c r="II57" s="12"/>
+      <c r="IJ57" s="12"/>
+      <c r="IK57" s="12"/>
+      <c r="IL57" s="12"/>
+      <c r="IM57" s="12"/>
+      <c r="IN57" s="12"/>
+      <c r="IO57" s="12"/>
+      <c r="IP57" s="12"/>
+      <c r="IQ57" s="12"/>
+      <c r="IR57" s="12"/>
+      <c r="IS57" s="12"/>
+      <c r="IT57" s="12"/>
+      <c r="IU57" s="12"/>
+      <c r="IV57" s="12"/>
+      <c r="IW57" s="12"/>
+      <c r="IX57" s="12"/>
+      <c r="IY57" s="12"/>
+      <c r="IZ57" s="12"/>
+      <c r="JA57" s="12"/>
+      <c r="JB57" s="12"/>
+      <c r="JC57" s="12"/>
+      <c r="JD57" s="12"/>
+      <c r="JE57" s="12"/>
+      <c r="JF57" s="12"/>
+      <c r="JG57" s="12"/>
+      <c r="JH57" s="12"/>
+      <c r="JI57" s="12"/>
+      <c r="JJ57" s="12"/>
+      <c r="JK57" s="12"/>
+      <c r="JL57" s="12"/>
+      <c r="JM57" s="12"/>
+      <c r="JN57" s="12"/>
+      <c r="JO57" s="12"/>
+      <c r="JP57" s="12"/>
+      <c r="JQ57" s="12"/>
+      <c r="JR57" s="12"/>
+      <c r="JS57" s="12"/>
+      <c r="JT57" s="12"/>
+      <c r="JU57" s="12"/>
+      <c r="JV57" s="12"/>
+      <c r="JW57" s="12"/>
+      <c r="JX57" s="12"/>
+      <c r="JY57" s="12"/>
+      <c r="JZ57" s="12"/>
+      <c r="KA57" s="12"/>
+      <c r="KB57" s="12"/>
+      <c r="KC57" s="12"/>
+      <c r="KD57" s="12"/>
+      <c r="KE57" s="12"/>
+      <c r="KF57" s="12"/>
+      <c r="KG57" s="12"/>
+      <c r="KH57" s="12"/>
+      <c r="KI57" s="12"/>
+      <c r="KJ57" s="12"/>
+      <c r="KK57" s="12"/>
+      <c r="KL57" s="12"/>
+      <c r="KM57" s="12"/>
+      <c r="KN57" s="12"/>
+      <c r="KO57" s="12"/>
+      <c r="KP57" s="12"/>
+      <c r="KQ57" s="12"/>
+      <c r="KR57" s="12"/>
+      <c r="KS57" s="12"/>
+      <c r="KT57" s="12"/>
+      <c r="KU57" s="12"/>
+      <c r="KV57" s="12"/>
+      <c r="KW57" s="12"/>
+      <c r="KX57" s="12"/>
+      <c r="KY57" s="12"/>
+      <c r="KZ57" s="12"/>
+      <c r="LA57" s="12"/>
+      <c r="LB57" s="12"/>
+      <c r="LC57" s="12"/>
+      <c r="LD57" s="12"/>
+      <c r="LE57" s="12"/>
+      <c r="LF57" s="12"/>
+      <c r="LG57" s="12"/>
+      <c r="LH57" s="12"/>
+      <c r="LI57" s="12"/>
+      <c r="LJ57" s="12"/>
+      <c r="LK57" s="12"/>
+      <c r="LL57" s="12"/>
+      <c r="LM57" s="12"/>
+      <c r="LN57" s="12"/>
+      <c r="LO57" s="12"/>
+      <c r="LP57" s="12"/>
+      <c r="LQ57" s="12"/>
+      <c r="LR57" s="12"/>
+      <c r="LS57" s="12"/>
+      <c r="LT57" s="12"/>
+      <c r="LU57" s="12"/>
+      <c r="LV57" s="12"/>
+      <c r="LW57" s="12"/>
+      <c r="LX57" s="12"/>
+      <c r="LY57" s="12"/>
+      <c r="LZ57" s="12"/>
+      <c r="MA57" s="12"/>
+      <c r="MB57" s="12"/>
+      <c r="MC57" s="12"/>
+      <c r="MD57" s="12"/>
+      <c r="ME57" s="12"/>
+      <c r="MF57" s="12"/>
+      <c r="MG57" s="12"/>
+      <c r="MH57" s="12"/>
+      <c r="MI57" s="12"/>
+      <c r="MJ57" s="12"/>
+      <c r="MK57" s="12"/>
+      <c r="ML57" s="12"/>
+      <c r="MM57" s="12"/>
+      <c r="MN57" s="12"/>
+      <c r="MO57" s="12"/>
+      <c r="MP57" s="12"/>
+      <c r="MQ57" s="12"/>
+      <c r="MR57" s="12"/>
+      <c r="MS57" s="12"/>
+      <c r="MT57" s="12"/>
+      <c r="MU57" s="12"/>
+      <c r="MV57" s="12"/>
+      <c r="MW57" s="12"/>
+      <c r="MX57" s="12"/>
+      <c r="MY57" s="12"/>
+      <c r="MZ57" s="12"/>
+      <c r="NA57" s="12"/>
+      <c r="NB57" s="12"/>
+      <c r="NC57" s="12"/>
+      <c r="ND57" s="12"/>
+      <c r="NE57" s="12"/>
+      <c r="NF57" s="12"/>
+      <c r="NG57" s="12"/>
+      <c r="NH57" s="12"/>
+      <c r="NI57" s="12"/>
+      <c r="NJ57" s="12"/>
+      <c r="NK57" s="12"/>
+      <c r="NL57" s="12"/>
+      <c r="NM57" s="12"/>
+      <c r="NN57" s="12"/>
+      <c r="NO57" s="12"/>
+      <c r="NP57" s="12"/>
+      <c r="NQ57" s="12"/>
+      <c r="NR57" s="12"/>
+      <c r="NS57" s="12"/>
+      <c r="NT57" s="12"/>
+      <c r="NU57" s="12"/>
+      <c r="NV57" s="12"/>
+      <c r="NW57" s="12"/>
+      <c r="NX57" s="12"/>
+      <c r="NY57" s="12"/>
+      <c r="NZ57" s="12"/>
+      <c r="OA57" s="12"/>
+      <c r="OB57" s="12"/>
+      <c r="OC57" s="12"/>
+      <c r="OD57" s="12"/>
+      <c r="OE57" s="12"/>
+      <c r="OF57" s="12"/>
+      <c r="OG57" s="12"/>
+      <c r="OH57" s="12"/>
+      <c r="OI57" s="12"/>
+      <c r="OJ57" s="12"/>
+      <c r="OK57" s="12"/>
+      <c r="OL57" s="12"/>
+      <c r="OM57" s="12"/>
+      <c r="ON57" s="12"/>
+      <c r="OO57" s="12"/>
+      <c r="OP57" s="12"/>
+      <c r="OQ57" s="12"/>
+      <c r="OR57" s="12"/>
+      <c r="OS57" s="12"/>
+      <c r="OT57" s="12"/>
+      <c r="OU57" s="12"/>
+      <c r="OV57" s="12"/>
+      <c r="OW57" s="12"/>
+      <c r="OX57" s="12"/>
+      <c r="OY57" s="12"/>
+      <c r="OZ57" s="12"/>
+      <c r="PA57" s="12"/>
+      <c r="PB57" s="12"/>
+      <c r="PC57" s="12"/>
+      <c r="PD57" s="12"/>
+      <c r="PE57" s="12"/>
+      <c r="PF57" s="12"/>
+      <c r="PG57" s="12"/>
+      <c r="PH57" s="12"/>
+      <c r="PI57" s="12"/>
+      <c r="PJ57" s="12"/>
+      <c r="PK57" s="12"/>
+      <c r="PL57" s="12"/>
+      <c r="PM57" s="12"/>
+      <c r="PN57" s="12"/>
+      <c r="PO57" s="12"/>
+      <c r="PP57" s="12"/>
+      <c r="PQ57" s="12"/>
+      <c r="PR57" s="12"/>
+      <c r="PS57" s="12"/>
+      <c r="PT57" s="12"/>
+      <c r="PU57" s="12"/>
+      <c r="PV57" s="12"/>
+      <c r="PW57" s="12"/>
+      <c r="PX57" s="12"/>
+      <c r="PY57" s="12"/>
+      <c r="PZ57" s="12"/>
+      <c r="QA57" s="12"/>
+      <c r="QB57" s="12"/>
+      <c r="QC57" s="12"/>
+      <c r="QD57" s="12"/>
+      <c r="QE57" s="12"/>
+      <c r="QF57" s="12"/>
+      <c r="QG57" s="12"/>
+      <c r="QH57" s="12"/>
+      <c r="QI57" s="12"/>
+      <c r="QJ57" s="12"/>
+      <c r="QK57" s="12"/>
+      <c r="QL57" s="12"/>
+      <c r="QM57" s="12"/>
+      <c r="QN57" s="12"/>
+      <c r="QO57" s="12"/>
+      <c r="QP57" s="12"/>
+      <c r="QQ57" s="12"/>
+      <c r="QR57" s="12"/>
+      <c r="QS57" s="12"/>
+      <c r="QT57" s="12"/>
+      <c r="QU57" s="12"/>
+      <c r="QV57" s="12"/>
+      <c r="QW57" s="12"/>
+      <c r="QX57" s="12"/>
+      <c r="QY57" s="12"/>
+      <c r="QZ57" s="12"/>
+      <c r="RA57" s="12"/>
+      <c r="RB57" s="12"/>
+      <c r="RC57" s="12"/>
+      <c r="RD57" s="12"/>
+      <c r="RE57" s="12"/>
+      <c r="RF57" s="12"/>
+      <c r="RG57" s="12"/>
+      <c r="RH57" s="12"/>
+      <c r="RI57" s="12"/>
+      <c r="RJ57" s="12"/>
+      <c r="RK57" s="12"/>
+      <c r="RL57" s="12"/>
+      <c r="RM57" s="12"/>
+      <c r="RN57" s="12"/>
+      <c r="RO57" s="12"/>
+      <c r="RP57" s="12"/>
+      <c r="RQ57" s="12"/>
+      <c r="RR57" s="12"/>
+      <c r="RS57" s="12"/>
+      <c r="RT57" s="12"/>
+      <c r="RU57" s="12"/>
+      <c r="RV57" s="12"/>
+      <c r="RW57" s="12"/>
+      <c r="RX57" s="12"/>
+      <c r="RY57" s="12"/>
+      <c r="RZ57" s="12"/>
+      <c r="SA57" s="12"/>
+      <c r="SB57" s="12"/>
+      <c r="SC57" s="12"/>
+      <c r="SD57" s="12"/>
+      <c r="SE57" s="12"/>
+      <c r="SF57" s="12"/>
+      <c r="SG57" s="12"/>
+      <c r="SH57" s="12"/>
+      <c r="SI57" s="12"/>
+      <c r="SJ57" s="12"/>
+      <c r="SK57" s="12"/>
+      <c r="SL57" s="12"/>
+      <c r="SM57" s="12"/>
+      <c r="SN57" s="12"/>
+      <c r="SO57" s="12"/>
+      <c r="SP57" s="12"/>
+      <c r="SQ57" s="12"/>
+      <c r="SR57" s="12"/>
+      <c r="SS57" s="12"/>
+      <c r="ST57" s="12"/>
+      <c r="SU57" s="12"/>
+      <c r="SV57" s="12"/>
+      <c r="SW57" s="12"/>
+      <c r="SX57" s="12"/>
+      <c r="SY57" s="12"/>
+      <c r="SZ57" s="12"/>
+      <c r="TA57" s="12"/>
+      <c r="TB57" s="12"/>
+      <c r="TC57" s="12"/>
+      <c r="TD57" s="12"/>
+      <c r="TE57" s="12"/>
+      <c r="TF57" s="12"/>
+      <c r="TG57" s="12"/>
+      <c r="TH57" s="12"/>
+      <c r="TI57" s="12"/>
+      <c r="TJ57" s="12"/>
+      <c r="TK57" s="12"/>
+      <c r="TL57" s="12"/>
+      <c r="TM57" s="12"/>
+      <c r="TN57" s="12"/>
+      <c r="TO57" s="12"/>
+      <c r="TP57" s="12"/>
+      <c r="TQ57" s="12"/>
+      <c r="TR57" s="12"/>
+      <c r="TS57" s="12"/>
+      <c r="TT57" s="12"/>
+      <c r="TU57" s="12"/>
+      <c r="TV57" s="12"/>
+      <c r="TW57" s="12"/>
+      <c r="TX57" s="12"/>
+      <c r="TY57" s="12"/>
+      <c r="TZ57" s="12"/>
+      <c r="UA57" s="12"/>
+      <c r="UB57" s="12"/>
+      <c r="UC57" s="12"/>
+      <c r="UD57" s="12"/>
+      <c r="UE57" s="12"/>
+      <c r="UF57" s="12"/>
+      <c r="UG57" s="12"/>
+      <c r="UH57" s="12"/>
+      <c r="UI57" s="12"/>
+      <c r="UJ57" s="12"/>
+      <c r="UK57" s="12"/>
+      <c r="UL57" s="12"/>
+      <c r="UM57" s="12"/>
+      <c r="UN57" s="12"/>
+      <c r="UO57" s="12"/>
+      <c r="UP57" s="12"/>
+      <c r="UQ57" s="12"/>
+      <c r="UR57" s="12"/>
+      <c r="US57" s="12"/>
+      <c r="UT57" s="12"/>
+      <c r="UU57" s="12"/>
+      <c r="UV57" s="12"/>
+      <c r="UW57" s="12"/>
+      <c r="UX57" s="12"/>
+      <c r="UY57" s="12"/>
+      <c r="UZ57" s="12"/>
+      <c r="VA57" s="12"/>
+      <c r="VB57" s="12"/>
+      <c r="VC57" s="12"/>
+      <c r="VD57" s="12"/>
+      <c r="VE57" s="12"/>
+      <c r="VF57" s="12"/>
+      <c r="VG57" s="12"/>
+      <c r="VH57" s="12"/>
+      <c r="VI57" s="12"/>
+      <c r="VJ57" s="12"/>
+      <c r="VK57" s="12"/>
+      <c r="VL57" s="12"/>
+      <c r="VM57" s="12"/>
+      <c r="VN57" s="12"/>
+      <c r="VO57" s="12"/>
+      <c r="VP57" s="12"/>
+      <c r="VQ57" s="12"/>
+      <c r="VR57" s="12"/>
+      <c r="VS57" s="12"/>
+      <c r="VT57" s="12"/>
+      <c r="VU57" s="12"/>
+      <c r="VV57" s="12"/>
+      <c r="VW57" s="12"/>
+      <c r="VX57" s="12"/>
+      <c r="VY57" s="12"/>
+      <c r="VZ57" s="12"/>
+      <c r="WA57" s="12"/>
+      <c r="WB57" s="12"/>
+      <c r="WC57" s="12"/>
+      <c r="WD57" s="12"/>
+      <c r="WE57" s="12"/>
+      <c r="WF57" s="12"/>
+      <c r="WG57" s="12"/>
+      <c r="WH57" s="12"/>
+      <c r="WI57" s="12"/>
+      <c r="WJ57" s="12"/>
+      <c r="WK57" s="12"/>
+      <c r="WL57" s="12"/>
+      <c r="WM57" s="12"/>
+      <c r="WN57" s="12"/>
+      <c r="WO57" s="12"/>
+      <c r="WP57" s="12"/>
+      <c r="WQ57" s="12"/>
+      <c r="WR57" s="12"/>
+      <c r="WS57" s="12"/>
+      <c r="WT57" s="12"/>
+      <c r="WU57" s="12"/>
+      <c r="WV57" s="12"/>
+      <c r="WW57" s="12"/>
+      <c r="WX57" s="12"/>
+      <c r="WY57" s="12"/>
+      <c r="WZ57" s="12"/>
+      <c r="XA57" s="12"/>
+      <c r="XB57" s="12"/>
+      <c r="XC57" s="12"/>
+      <c r="XD57" s="12"/>
+      <c r="XE57" s="12"/>
+      <c r="XF57" s="12"/>
+      <c r="XG57" s="12"/>
+      <c r="XH57" s="12"/>
+      <c r="XI57" s="12"/>
+      <c r="XJ57" s="12"/>
+      <c r="XK57" s="12"/>
+      <c r="XL57" s="12"/>
+      <c r="XM57" s="12"/>
+      <c r="XN57" s="12"/>
+      <c r="XO57" s="12"/>
+      <c r="XP57" s="12"/>
+      <c r="XQ57" s="12"/>
+      <c r="XR57" s="12"/>
+      <c r="XS57" s="12"/>
+      <c r="XT57" s="12"/>
+      <c r="XU57" s="12"/>
+      <c r="XV57" s="12"/>
+      <c r="XW57" s="12"/>
+      <c r="XX57" s="12"/>
+      <c r="XY57" s="12"/>
+      <c r="XZ57" s="12"/>
+      <c r="YA57" s="12"/>
+      <c r="YB57" s="12"/>
+      <c r="YC57" s="12"/>
+      <c r="YD57" s="12"/>
+      <c r="YE57" s="12"/>
+      <c r="YF57" s="12"/>
+      <c r="YG57" s="12"/>
+      <c r="YH57" s="12"/>
+      <c r="YI57" s="12"/>
+      <c r="YJ57" s="12"/>
+      <c r="YK57" s="12"/>
+      <c r="YL57" s="12"/>
+      <c r="YM57" s="12"/>
+      <c r="YN57" s="12"/>
+      <c r="YO57" s="12"/>
+      <c r="YP57" s="12"/>
+      <c r="YQ57" s="12"/>
+      <c r="YR57" s="12"/>
+      <c r="YS57" s="12"/>
+      <c r="YT57" s="12"/>
+      <c r="YU57" s="12"/>
+      <c r="YV57" s="12"/>
+      <c r="YW57" s="12"/>
+      <c r="YX57" s="12"/>
+      <c r="YY57" s="12"/>
+      <c r="YZ57" s="12"/>
+      <c r="ZA57" s="12"/>
+      <c r="ZB57" s="12"/>
+      <c r="ZC57" s="12"/>
+      <c r="ZD57" s="12"/>
+      <c r="ZE57" s="12"/>
+      <c r="ZF57" s="12"/>
+      <c r="ZG57" s="12"/>
+      <c r="ZH57" s="12"/>
+      <c r="ZI57" s="12"/>
+      <c r="ZJ57" s="12"/>
+      <c r="ZK57" s="12"/>
+      <c r="ZL57" s="12"/>
+      <c r="ZM57" s="12"/>
+      <c r="ZN57" s="12"/>
+      <c r="ZO57" s="12"/>
+      <c r="ZP57" s="12"/>
+      <c r="ZQ57" s="12"/>
+      <c r="ZR57" s="12"/>
+      <c r="ZS57" s="12"/>
+      <c r="ZT57" s="12"/>
+      <c r="ZU57" s="12"/>
+      <c r="ZV57" s="12"/>
+      <c r="ZW57" s="12"/>
+      <c r="ZX57" s="12"/>
+      <c r="ZY57" s="12"/>
+      <c r="ZZ57" s="12"/>
+      <c r="AAA57" s="12"/>
+      <c r="AAB57" s="12"/>
+      <c r="AAC57" s="12"/>
+      <c r="AAD57" s="12"/>
+      <c r="AAE57" s="12"/>
+      <c r="AAF57" s="12"/>
+      <c r="AAG57" s="12"/>
+      <c r="AAH57" s="12"/>
+      <c r="AAI57" s="12"/>
+      <c r="AAJ57" s="12"/>
+      <c r="AAK57" s="12"/>
+      <c r="AAL57" s="12"/>
+      <c r="AAM57" s="12"/>
+      <c r="AAN57" s="12"/>
+      <c r="AAO57" s="12"/>
+      <c r="AAP57" s="12"/>
+      <c r="AAQ57" s="12"/>
+      <c r="AAR57" s="12"/>
+      <c r="AAS57" s="12"/>
+      <c r="AAT57" s="12"/>
+      <c r="AAU57" s="12"/>
+      <c r="AAV57" s="12"/>
+      <c r="AAW57" s="12"/>
+      <c r="AAX57" s="12"/>
+      <c r="AAY57" s="12"/>
+      <c r="AAZ57" s="12"/>
+      <c r="ABA57" s="12"/>
+      <c r="ABB57" s="12"/>
+      <c r="ABC57" s="12"/>
+      <c r="ABD57" s="12"/>
+      <c r="ABE57" s="12"/>
+      <c r="ABF57" s="12"/>
+      <c r="ABG57" s="12"/>
+      <c r="ABH57" s="12"/>
+      <c r="ABI57" s="12"/>
+      <c r="ABJ57" s="12"/>
+      <c r="ABK57" s="12"/>
+      <c r="ABL57" s="12"/>
+      <c r="ABM57" s="12"/>
+      <c r="ABN57" s="12"/>
+      <c r="ABO57" s="12"/>
+      <c r="ABP57" s="12"/>
+      <c r="ABQ57" s="12"/>
+      <c r="ABR57" s="12"/>
+      <c r="ABS57" s="12"/>
+      <c r="ABT57" s="12"/>
+      <c r="ABU57" s="12"/>
+      <c r="ABV57" s="12"/>
+      <c r="ABW57" s="12"/>
+      <c r="ABX57" s="12"/>
+      <c r="ABY57" s="12"/>
+      <c r="ABZ57" s="12"/>
+      <c r="ACA57" s="12"/>
+      <c r="ACB57" s="12"/>
+      <c r="ACC57" s="12"/>
+      <c r="ACD57" s="12"/>
+      <c r="ACE57" s="12"/>
+      <c r="ACF57" s="12"/>
+      <c r="ACG57" s="12"/>
+      <c r="ACH57" s="12"/>
+      <c r="ACI57" s="12"/>
+      <c r="ACJ57" s="12"/>
+      <c r="ACK57" s="12"/>
+      <c r="ACL57" s="12"/>
+      <c r="ACM57" s="12"/>
+      <c r="ACN57" s="12"/>
+      <c r="ACO57" s="12"/>
+      <c r="ACP57" s="12"/>
+      <c r="ACQ57" s="12"/>
+      <c r="ACR57" s="12"/>
+      <c r="ACS57" s="12"/>
+      <c r="ACT57" s="12"/>
+      <c r="ACU57" s="12"/>
+      <c r="ACV57" s="12"/>
+      <c r="ACW57" s="12"/>
+      <c r="ACX57" s="12"/>
+      <c r="ACY57" s="12"/>
+      <c r="ACZ57" s="12"/>
+      <c r="ADA57" s="12"/>
+      <c r="ADB57" s="12"/>
+      <c r="ADC57" s="12"/>
+      <c r="ADD57" s="12"/>
+      <c r="ADE57" s="12"/>
+      <c r="ADF57" s="12"/>
+      <c r="ADG57" s="12"/>
+      <c r="ADH57" s="12"/>
+      <c r="ADI57" s="12"/>
+      <c r="ADJ57" s="12"/>
+      <c r="ADK57" s="12"/>
+      <c r="ADL57" s="12"/>
+      <c r="ADM57" s="12"/>
+      <c r="ADN57" s="12"/>
+      <c r="ADO57" s="12"/>
+      <c r="ADP57" s="12"/>
+      <c r="ADQ57" s="12"/>
+      <c r="ADR57" s="12"/>
+      <c r="ADS57" s="12"/>
+      <c r="ADT57" s="12"/>
+      <c r="ADU57" s="12"/>
+      <c r="ADV57" s="12"/>
+      <c r="ADW57" s="12"/>
+      <c r="ADX57" s="12"/>
+      <c r="ADY57" s="12"/>
+      <c r="ADZ57" s="12"/>
+      <c r="AEA57" s="12"/>
+      <c r="AEB57" s="12"/>
+      <c r="AEC57" s="12"/>
+      <c r="AED57" s="12"/>
+      <c r="AEE57" s="12"/>
+      <c r="AEF57" s="12"/>
+      <c r="AEG57" s="12"/>
+      <c r="AEH57" s="12"/>
+      <c r="AEI57" s="12"/>
+      <c r="AEJ57" s="12"/>
+      <c r="AEK57" s="12"/>
+      <c r="AEL57" s="12"/>
+      <c r="AEM57" s="12"/>
+      <c r="AEN57" s="12"/>
+      <c r="AEO57" s="12"/>
+      <c r="AEP57" s="12"/>
+      <c r="AEQ57" s="12"/>
+      <c r="AER57" s="12"/>
+      <c r="AES57" s="12"/>
+      <c r="AET57" s="12"/>
+      <c r="AEU57" s="12"/>
+      <c r="AEV57" s="12"/>
+      <c r="AEW57" s="12"/>
+      <c r="AEX57" s="12"/>
+      <c r="AEY57" s="12"/>
+      <c r="AEZ57" s="12"/>
+      <c r="AFA57" s="12"/>
+      <c r="AFB57" s="12"/>
+      <c r="AFC57" s="12"/>
+      <c r="AFD57" s="12"/>
+      <c r="AFE57" s="12"/>
+      <c r="AFF57" s="12"/>
+      <c r="AFG57" s="12"/>
+      <c r="AFH57" s="12"/>
+      <c r="AFI57" s="12"/>
+      <c r="AFJ57" s="12"/>
+      <c r="AFK57" s="12"/>
+      <c r="AFL57" s="12"/>
+      <c r="AFM57" s="12"/>
+      <c r="AFN57" s="12"/>
+      <c r="AFO57" s="12"/>
+      <c r="AFP57" s="12"/>
+      <c r="AFQ57" s="12"/>
+      <c r="AFR57" s="12"/>
+      <c r="AFS57" s="12"/>
+      <c r="AFT57" s="12"/>
+      <c r="AFU57" s="12"/>
+      <c r="AFV57" s="12"/>
+      <c r="AFW57" s="12"/>
+      <c r="AFX57" s="12"/>
+      <c r="AFY57" s="12"/>
+      <c r="AFZ57" s="12"/>
+      <c r="AGA57" s="12"/>
+      <c r="AGB57" s="12"/>
+      <c r="AGC57" s="12"/>
+      <c r="AGD57" s="12"/>
+      <c r="AGE57" s="12"/>
+      <c r="AGF57" s="12"/>
+      <c r="AGG57" s="12"/>
+      <c r="AGH57" s="12"/>
+      <c r="AGI57" s="12"/>
+      <c r="AGJ57" s="12"/>
+      <c r="AGK57" s="12"/>
+      <c r="AGL57" s="12"/>
+      <c r="AGM57" s="12"/>
+      <c r="AGN57" s="12"/>
+      <c r="AGO57" s="12"/>
+      <c r="AGP57" s="12"/>
+      <c r="AGQ57" s="12"/>
+      <c r="AGR57" s="12"/>
+      <c r="AGS57" s="12"/>
+      <c r="AGT57" s="12"/>
+      <c r="AGU57" s="12"/>
+      <c r="AGV57" s="12"/>
+      <c r="AGW57" s="12"/>
+      <c r="AGX57" s="12"/>
+      <c r="AGY57" s="12"/>
+      <c r="AGZ57" s="12"/>
+      <c r="AHA57" s="12"/>
+      <c r="AHB57" s="12"/>
+      <c r="AHC57" s="12"/>
+      <c r="AHD57" s="12"/>
+      <c r="AHE57" s="12"/>
+      <c r="AHF57" s="12"/>
+      <c r="AHG57" s="12"/>
+      <c r="AHH57" s="12"/>
+      <c r="AHI57" s="12"/>
+      <c r="AHJ57" s="12"/>
+      <c r="AHK57" s="12"/>
+      <c r="AHL57" s="12"/>
+      <c r="AHM57" s="12"/>
+      <c r="AHN57" s="12"/>
+      <c r="AHO57" s="12"/>
+      <c r="AHP57" s="12"/>
+      <c r="AHQ57" s="12"/>
+      <c r="AHR57" s="12"/>
+      <c r="AHS57" s="12"/>
+      <c r="AHT57" s="12"/>
+      <c r="AHU57" s="12"/>
+      <c r="AHV57" s="12"/>
+      <c r="AHW57" s="12"/>
+      <c r="AHX57" s="12"/>
+      <c r="AHY57" s="12"/>
+      <c r="AHZ57" s="12"/>
+      <c r="AIA57" s="12"/>
+      <c r="AIB57" s="12"/>
+      <c r="AIC57" s="12"/>
+      <c r="AID57" s="12"/>
+      <c r="AIE57" s="12"/>
+      <c r="AIF57" s="12"/>
+      <c r="AIG57" s="12"/>
+      <c r="AIH57" s="12"/>
+      <c r="AII57" s="12"/>
+      <c r="AIJ57" s="12"/>
+      <c r="AIK57" s="12"/>
+      <c r="AIL57" s="12"/>
+      <c r="AIM57" s="12"/>
+      <c r="AIN57" s="12"/>
+      <c r="AIO57" s="12"/>
+      <c r="AIP57" s="12"/>
+      <c r="AIQ57" s="12"/>
+      <c r="AIR57" s="12"/>
+      <c r="AIS57" s="12"/>
+      <c r="AIT57" s="12"/>
+      <c r="AIU57" s="12"/>
+      <c r="AIV57" s="12"/>
+      <c r="AIW57" s="12"/>
+      <c r="AIX57" s="12"/>
+      <c r="AIY57" s="12"/>
+      <c r="AIZ57" s="12"/>
+      <c r="AJA57" s="12"/>
+      <c r="AJB57" s="12"/>
+      <c r="AJC57" s="12"/>
+      <c r="AJD57" s="12"/>
+      <c r="AJE57" s="12"/>
+      <c r="AJF57" s="12"/>
+      <c r="AJG57" s="12"/>
+      <c r="AJH57" s="12"/>
+      <c r="AJI57" s="12"/>
+      <c r="AJJ57" s="12"/>
+      <c r="AJK57" s="12"/>
+      <c r="AJL57" s="12"/>
+      <c r="AJM57" s="12"/>
+      <c r="AJN57" s="12"/>
+      <c r="AJO57" s="12"/>
+      <c r="AJP57" s="12"/>
+      <c r="AJQ57" s="12"/>
+      <c r="AJR57" s="12"/>
+      <c r="AJS57" s="12"/>
+      <c r="AJT57" s="12"/>
+      <c r="AJU57" s="12"/>
+      <c r="AJV57" s="12"/>
+      <c r="AJW57" s="12"/>
+      <c r="AJX57" s="12"/>
+      <c r="AJY57" s="12"/>
+      <c r="AJZ57" s="12"/>
+      <c r="AKA57" s="12"/>
+      <c r="AKB57" s="12"/>
+      <c r="AKC57" s="12"/>
+      <c r="AKD57" s="12"/>
+      <c r="AKE57" s="12"/>
+      <c r="AKF57" s="12"/>
+      <c r="AKG57" s="12"/>
+      <c r="AKH57" s="12"/>
+      <c r="AKI57" s="12"/>
+      <c r="AKJ57" s="12"/>
+      <c r="AKK57" s="12"/>
+      <c r="AKL57" s="12"/>
+      <c r="AKM57" s="12"/>
+      <c r="AKN57" s="12"/>
+      <c r="AKO57" s="12"/>
+      <c r="AKP57" s="12"/>
+      <c r="AKQ57" s="12"/>
+      <c r="AKR57" s="12"/>
+      <c r="AKS57" s="12"/>
+      <c r="AKT57" s="12"/>
+      <c r="AKU57" s="12"/>
+      <c r="AKV57" s="12"/>
+      <c r="AKW57" s="12"/>
+      <c r="AKX57" s="12"/>
+      <c r="AKY57" s="12"/>
+      <c r="AKZ57" s="12"/>
+      <c r="ALA57" s="12"/>
+      <c r="ALB57" s="12"/>
+      <c r="ALC57" s="12"/>
+      <c r="ALD57" s="12"/>
+      <c r="ALE57" s="12"/>
+      <c r="ALF57" s="12"/>
+      <c r="ALG57" s="12"/>
+      <c r="ALH57" s="12"/>
+      <c r="ALI57" s="12"/>
+      <c r="ALJ57" s="12"/>
+      <c r="ALK57" s="12"/>
+      <c r="ALL57" s="12"/>
+      <c r="ALM57" s="12"/>
+      <c r="ALN57" s="12"/>
+      <c r="ALO57" s="12"/>
+      <c r="ALP57" s="12"/>
+      <c r="ALQ57" s="12"/>
+      <c r="ALR57" s="12"/>
+      <c r="ALS57" s="12"/>
+      <c r="ALT57" s="12"/>
+      <c r="ALU57" s="12"/>
+      <c r="ALV57" s="12"/>
+      <c r="ALW57" s="12"/>
+      <c r="ALX57" s="12"/>
+      <c r="ALY57" s="12"/>
+      <c r="ALZ57" s="12"/>
+      <c r="AMA57" s="12"/>
+      <c r="AMB57" s="12"/>
+      <c r="AMC57" s="12"/>
+      <c r="AMD57" s="12"/>
+      <c r="AME57" s="12"/>
+      <c r="AMF57" s="12"/>
+      <c r="AMG57" s="12"/>
+      <c r="AMH57" s="12"/>
+      <c r="AMI57" s="12"/>
+      <c r="AMJ57" s="12"/>
+      <c r="AMK57" s="12"/>
+      <c r="AML57" s="12"/>
+    </row>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
